--- a/report/pics/graphs_top50.xlsx
+++ b/report/pics/graphs_top50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Top50All" sheetId="1" state="visible" r:id="rId2"/>
@@ -624,11 +624,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31899758"/>
-        <c:axId val="8869165"/>
+        <c:axId val="25313147"/>
+        <c:axId val="39372198"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31899758"/>
+        <c:axId val="25313147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,14 +663,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8869165"/>
+        <c:crossAx val="39372198"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8869165"/>
+        <c:axId val="39372198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -715,7 +715,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31899758"/>
+        <c:crossAx val="25313147"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1107,11 +1107,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="13985694"/>
-        <c:axId val="1831568"/>
+        <c:axId val="93277326"/>
+        <c:axId val="4487811"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13985694"/>
+        <c:axId val="93277326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,14 +1146,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1831568"/>
+        <c:crossAx val="4487811"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1831568"/>
+        <c:axId val="4487811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1198,7 +1198,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13985694"/>
+        <c:crossAx val="93277326"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1590,11 +1590,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="87300397"/>
-        <c:axId val="27213055"/>
+        <c:axId val="1371674"/>
+        <c:axId val="34408634"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87300397"/>
+        <c:axId val="1371674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,14 +1629,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27213055"/>
+        <c:crossAx val="34408634"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27213055"/>
+        <c:axId val="34408634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1680,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87300397"/>
+        <c:crossAx val="1371674"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2072,11 +2072,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84290567"/>
-        <c:axId val="20847991"/>
+        <c:axId val="9927785"/>
+        <c:axId val="20979095"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84290567"/>
+        <c:axId val="9927785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,14 +2111,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20847991"/>
+        <c:crossAx val="20979095"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20847991"/>
+        <c:axId val="20979095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2162,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84290567"/>
+        <c:crossAx val="9927785"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2209,9 +2209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:colOff>325440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2220,7 +2220,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="119160" y="1491840"/>
-        <a:ext cx="5759280" cy="3240360"/>
+        <a:ext cx="5759640" cy="2879640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2239,9 +2239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:colOff>165600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2250,7 +2250,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6207840" y="1539360"/>
-        <a:ext cx="5759280" cy="3240720"/>
+        <a:ext cx="5759640" cy="2879640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2274,9 +2274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:colOff>150120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2285,7 +2285,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1169280" y="1453320"/>
-        <a:ext cx="5746320" cy="3241080"/>
+        <a:ext cx="5760000" cy="2880000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2304,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:colOff>65520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2315,7 +2315,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7108200" y="1443960"/>
-        <a:ext cx="5732280" cy="3240720"/>
+        <a:ext cx="5760000" cy="2880000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2335,8 +2335,8 @@
   </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2759,7 +2759,7 @@
   </sheetPr>
   <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
     </sheetView>
   </sheetViews>

--- a/report/pics/graphs_top50.xlsx
+++ b/report/pics/graphs_top50.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Top50All" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Top50Best10First10" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Top50Cond1D" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="39">
   <si>
     <t xml:space="preserve">Top-50-code</t>
   </si>
@@ -103,6 +104,42 @@
   <si>
     <t xml:space="preserve">-</t>
   </si>
+  <si>
+    <t xml:space="preserve">conv1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 10 models (parallel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 50 model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels 01 - 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels 11 - 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels 21 - 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels 31 - 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels 41 - 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +180,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,13 +229,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -624,11 +686,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25313147"/>
-        <c:axId val="39372198"/>
+        <c:axId val="83340654"/>
+        <c:axId val="82833620"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25313147"/>
+        <c:axId val="83340654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,14 +725,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39372198"/>
+        <c:crossAx val="82833620"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39372198"/>
+        <c:axId val="82833620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -715,7 +777,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25313147"/>
+        <c:crossAx val="83340654"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1107,11 +1169,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="93277326"/>
-        <c:axId val="4487811"/>
+        <c:axId val="36409715"/>
+        <c:axId val="55552044"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93277326"/>
+        <c:axId val="36409715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,14 +1208,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4487811"/>
+        <c:crossAx val="55552044"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4487811"/>
+        <c:axId val="55552044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1198,7 +1260,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93277326"/>
+        <c:crossAx val="36409715"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1395,22 +1457,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.7994</c:v>
+                  <c:v>0.8392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7944</c:v>
+                  <c:v>0.8395</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8345</c:v>
+                  <c:v>0.865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8514</c:v>
+                  <c:v>0.8688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8442</c:v>
+                  <c:v>0.8871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,22 +1629,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.6141</c:v>
+                  <c:v>0.532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4512</c:v>
+                  <c:v>0.2822</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6481</c:v>
+                  <c:v>0.4739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6738</c:v>
+                  <c:v>0.4025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6641</c:v>
+                  <c:v>0.6328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,11 +1652,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="1371674"/>
-        <c:axId val="34408634"/>
+        <c:axId val="31615618"/>
+        <c:axId val="97539626"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1371674"/>
+        <c:axId val="31615618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,14 +1691,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34408634"/>
+        <c:crossAx val="97539626"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34408634"/>
+        <c:axId val="97539626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1742,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371674"/>
+        <c:crossAx val="31615618"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1877,22 +1939,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.8392</c:v>
+                  <c:v>0.7994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8395</c:v>
+                  <c:v>0.7944</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.865</c:v>
+                  <c:v>0.8345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8688</c:v>
+                  <c:v>0.8514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8871</c:v>
+                  <c:v>0.8442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,22 +2111,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.532</c:v>
+                  <c:v>0.6141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2822</c:v>
+                  <c:v>0.4512</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4739</c:v>
+                  <c:v>0.6481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4025</c:v>
+                  <c:v>0.6738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6328</c:v>
+                  <c:v>0.6641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,11 +2134,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="9927785"/>
-        <c:axId val="20979095"/>
+        <c:axId val="18425794"/>
+        <c:axId val="96581248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9927785"/>
+        <c:axId val="18425794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,14 +2173,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20979095"/>
+        <c:crossAx val="96581248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20979095"/>
+        <c:axId val="96581248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2224,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9927785"/>
+        <c:crossAx val="18425794"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2209,9 +2271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>324720</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2220,7 +2282,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="119160" y="1491840"/>
-        <a:ext cx="5759640" cy="2879640"/>
+        <a:ext cx="5758920" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2239,9 +2301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>164880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2250,7 +2312,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6207840" y="1539360"/>
-        <a:ext cx="5759640" cy="2879640"/>
+        <a:ext cx="5758920" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2268,15 +2330,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
+      <xdr:colOff>199080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2284,8 +2346,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1169280" y="1453320"/>
-        <a:ext cx="5760000" cy="2880000"/>
+        <a:off x="1129680" y="1396080"/>
+        <a:ext cx="5759280" cy="2879640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2297,16 +2359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>65520</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>282240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2314,8 +2376,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7108200" y="1443960"/>
-        <a:ext cx="5760000" cy="2880000"/>
+        <a:off x="7271640" y="1453320"/>
+        <a:ext cx="5758560" cy="2879640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2759,16 +2821,25 @@
   </sheetPr>
   <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW2" activeCellId="0" sqref="AW2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="18" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="42" style="0" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="2" style="0" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="18" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="26" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="34" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="3.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="42" style="0" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="10.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="50" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2985,52 +3056,52 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.9982</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>0.9991</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0.9971</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.9998</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.9981</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>0.7422</v>
+        <v>0.6944</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.6732</v>
+        <v>0.6286</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.8803</v>
+        <v>0.8941</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.7049</v>
+        <v>0.6577</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.9437</v>
+        <v>0.9564</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.9309</v>
+        <v>0.944</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.9652</v>
+        <v>0.9786</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.9372</v>
+        <v>0.9501</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.6458</v>
+        <v>0.5801</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.5856</v>
+        <v>0.4934</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.7994</v>
+        <v>0.8392</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.6141</v>
+        <v>0.532</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>0.9564</v>
@@ -3057,52 +3128,52 @@
         <v>0.532</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>0.9999</v>
+        <v>0.9991</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>0.9982</v>
+        <v>0.9971</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>0.9999</v>
+        <v>0.9998</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>0.9991</v>
+        <v>0.9981</v>
       </c>
       <c r="AD3" s="0" t="n">
-        <v>0.6944</v>
+        <v>0.7422</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>0.6286</v>
+        <v>0.6732</v>
       </c>
       <c r="AF3" s="0" t="n">
-        <v>0.8941</v>
+        <v>0.8803</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>0.6577</v>
+        <v>0.7049</v>
       </c>
       <c r="AH3" s="0" t="n">
-        <v>0.9564</v>
+        <v>0.9437</v>
       </c>
       <c r="AI3" s="0" t="n">
-        <v>0.944</v>
+        <v>0.9309</v>
       </c>
       <c r="AJ3" s="0" t="n">
-        <v>0.9786</v>
+        <v>0.9652</v>
       </c>
       <c r="AK3" s="0" t="n">
-        <v>0.9501</v>
+        <v>0.9372</v>
       </c>
       <c r="AL3" s="0" t="n">
-        <v>0.5801</v>
+        <v>0.6458</v>
       </c>
       <c r="AM3" s="0" t="n">
-        <v>0.4934</v>
+        <v>0.5856</v>
       </c>
       <c r="AN3" s="0" t="n">
-        <v>0.8392</v>
+        <v>0.7994</v>
       </c>
       <c r="AO3" s="0" t="n">
-        <v>0.532</v>
+        <v>0.6141</v>
       </c>
       <c r="AP3" s="0" t="n">
         <v>0.9437</v>
@@ -3134,52 +3205,52 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.9934</v>
+        <v>0.9924</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.6928</v>
+        <v>0.7308</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.9215</v>
+        <v>0.9475</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.8115</v>
+        <v>0.8273</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.8386</v>
+        <v>0.7836</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.4346</v>
+        <v>0.4474</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.8481</v>
+        <v>0.8866</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.5526</v>
+        <v>0.5154</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.9937</v>
+        <v>0.9946</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.6321</v>
+        <v>0.4937</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.8999</v>
+        <v>0.911</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.7687</v>
+        <v>0.6305</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.7877</v>
+        <v>0.7869</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.3282</v>
+        <v>0.2009</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.7944</v>
+        <v>0.8395</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0.4512</v>
+        <v>0.2822</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0.9989</v>
@@ -3206,52 +3277,52 @@
         <v>0.3219</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>0.9924</v>
+        <v>0.9934</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>0.7308</v>
+        <v>0.6928</v>
       </c>
       <c r="AB4" s="0" t="n">
-        <v>0.9475</v>
+        <v>0.9215</v>
       </c>
       <c r="AC4" s="0" t="n">
-        <v>0.8273</v>
+        <v>0.8115</v>
       </c>
       <c r="AD4" s="0" t="n">
-        <v>0.7836</v>
+        <v>0.8386</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>0.4474</v>
+        <v>0.4346</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>0.8866</v>
+        <v>0.8481</v>
       </c>
       <c r="AG4" s="0" t="n">
-        <v>0.5154</v>
+        <v>0.5526</v>
       </c>
       <c r="AH4" s="0" t="n">
-        <v>0.9946</v>
+        <v>0.9937</v>
       </c>
       <c r="AI4" s="0" t="n">
-        <v>0.4937</v>
+        <v>0.6321</v>
       </c>
       <c r="AJ4" s="0" t="n">
-        <v>0.911</v>
+        <v>0.8999</v>
       </c>
       <c r="AK4" s="0" t="n">
-        <v>0.6305</v>
+        <v>0.7687</v>
       </c>
       <c r="AL4" s="0" t="n">
-        <v>0.7869</v>
+        <v>0.7877</v>
       </c>
       <c r="AM4" s="0" t="n">
-        <v>0.2009</v>
+        <v>0.3282</v>
       </c>
       <c r="AN4" s="0" t="n">
-        <v>0.8395</v>
+        <v>0.7944</v>
       </c>
       <c r="AO4" s="0" t="n">
-        <v>0.2822</v>
+        <v>0.4512</v>
       </c>
       <c r="AP4" s="0" t="n">
         <v>0.9983</v>
@@ -3432,52 +3503,52 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.8689</v>
+        <v>0.8181</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.7724</v>
+        <v>0.7387</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.9323</v>
+        <v>0.9417</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.8126</v>
+        <v>0.7721</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.8141</v>
+        <v>0.7567</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.6889</v>
+        <v>0.6492</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.9073</v>
+        <v>0.9259</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.7396</v>
+        <v>0.6916</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.7945</v>
+        <v>0.7708</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.6652</v>
+        <v>0.4673</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.867</v>
+        <v>0.8858</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.7142</v>
+        <v>0.5377</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.7296</v>
+        <v>0.6784</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.5979</v>
+        <v>0.4109</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.8345</v>
+        <v>0.865</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0.6481</v>
+        <v>0.4739</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>0.8312</v>
@@ -3504,52 +3575,52 @@
         <v>0.6373</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>0.8181</v>
+        <v>0.8689</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>0.7387</v>
+        <v>0.7724</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>0.9417</v>
+        <v>0.9323</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>0.7721</v>
+        <v>0.8126</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>0.7567</v>
+        <v>0.8141</v>
       </c>
       <c r="AE6" s="0" t="n">
-        <v>0.6492</v>
+        <v>0.6889</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>0.9259</v>
+        <v>0.9073</v>
       </c>
       <c r="AG6" s="0" t="n">
-        <v>0.6916</v>
+        <v>0.7396</v>
       </c>
       <c r="AH6" s="0" t="n">
-        <v>0.7708</v>
+        <v>0.7945</v>
       </c>
       <c r="AI6" s="0" t="n">
-        <v>0.4673</v>
+        <v>0.6652</v>
       </c>
       <c r="AJ6" s="0" t="n">
-        <v>0.8858</v>
+        <v>0.867</v>
       </c>
       <c r="AK6" s="0" t="n">
-        <v>0.5377</v>
+        <v>0.7142</v>
       </c>
       <c r="AL6" s="0" t="n">
-        <v>0.6784</v>
+        <v>0.7296</v>
       </c>
       <c r="AM6" s="0" t="n">
-        <v>0.4109</v>
+        <v>0.5979</v>
       </c>
       <c r="AN6" s="0" t="n">
-        <v>0.865</v>
+        <v>0.8345</v>
       </c>
       <c r="AO6" s="0" t="n">
-        <v>0.4739</v>
+        <v>0.6481</v>
       </c>
       <c r="AP6" s="0" t="n">
         <v>0.8039</v>
@@ -3581,52 +3652,52 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.8779</v>
+        <v>0.8246</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.8319</v>
+        <v>0.6942</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.9406</v>
+        <v>0.9351</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.8533</v>
+        <v>0.7378</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.8374</v>
+        <v>0.7522</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.7496</v>
+        <v>0.6232</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.9151</v>
+        <v>0.9207</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.7887</v>
+        <v>0.6644</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.7963</v>
+        <v>0.6204</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.6863</v>
+        <v>0.3829</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.8768</v>
+        <v>0.8805</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.7213</v>
+        <v>0.4348</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.7515</v>
+        <v>0.5748</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.6362</v>
+        <v>0.3526</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.8514</v>
+        <v>0.8688</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0.6738</v>
+        <v>0.4025</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>0.8106</v>
@@ -3653,52 +3724,52 @@
         <v>0.6874</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>0.8246</v>
+        <v>0.8779</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>0.6942</v>
+        <v>0.8319</v>
       </c>
       <c r="AB7" s="0" t="n">
-        <v>0.9351</v>
+        <v>0.9406</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>0.7378</v>
+        <v>0.8533</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>0.7522</v>
+        <v>0.8374</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>0.6232</v>
+        <v>0.7496</v>
       </c>
       <c r="AF7" s="0" t="n">
-        <v>0.9207</v>
+        <v>0.9151</v>
       </c>
       <c r="AG7" s="0" t="n">
-        <v>0.6644</v>
+        <v>0.7887</v>
       </c>
       <c r="AH7" s="0" t="n">
-        <v>0.6204</v>
+        <v>0.7963</v>
       </c>
       <c r="AI7" s="0" t="n">
-        <v>0.3829</v>
+        <v>0.6863</v>
       </c>
       <c r="AJ7" s="0" t="n">
-        <v>0.8805</v>
+        <v>0.8768</v>
       </c>
       <c r="AK7" s="0" t="n">
-        <v>0.4348</v>
+        <v>0.7213</v>
       </c>
       <c r="AL7" s="0" t="n">
-        <v>0.5748</v>
+        <v>0.7515</v>
       </c>
       <c r="AM7" s="0" t="n">
-        <v>0.3526</v>
+        <v>0.6362</v>
       </c>
       <c r="AN7" s="0" t="n">
-        <v>0.8688</v>
+        <v>0.8514</v>
       </c>
       <c r="AO7" s="0" t="n">
-        <v>0.4025</v>
+        <v>0.6738</v>
       </c>
       <c r="AP7" s="0" t="n">
         <v>0.8146</v>
@@ -3730,52 +3801,52 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.8751</v>
+        <v>0.8555</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.8199</v>
+        <v>0.831</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.9376</v>
+        <v>0.9592</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.8455</v>
+        <v>0.8399</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.8201</v>
+        <v>0.7872</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.7423</v>
+        <v>0.7334</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.9115</v>
+        <v>0.9288</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.7773</v>
+        <v>0.7552</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.7901</v>
+        <v>0.8351</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.6803</v>
+        <v>0.6474</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.8729</v>
+        <v>0.9168</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.7213</v>
+        <v>0.7181</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.7382</v>
+        <v>0.752</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.6196</v>
+        <v>0.5618</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.8442</v>
+        <v>0.8871</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.6641</v>
+        <v>0.6328</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>0.7936</v>
@@ -3802,52 +3873,52 @@
         <v>0.6957</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>0.8555</v>
+        <v>0.8751</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>0.831</v>
+        <v>0.8199</v>
       </c>
       <c r="AB8" s="0" t="n">
-        <v>0.9592</v>
+        <v>0.9376</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>0.8399</v>
+        <v>0.8455</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>0.7872</v>
+        <v>0.8201</v>
       </c>
       <c r="AE8" s="0" t="n">
-        <v>0.7334</v>
+        <v>0.7423</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>0.9288</v>
+        <v>0.9115</v>
       </c>
       <c r="AG8" s="0" t="n">
-        <v>0.7552</v>
+        <v>0.7773</v>
       </c>
       <c r="AH8" s="0" t="n">
-        <v>0.8351</v>
+        <v>0.7901</v>
       </c>
       <c r="AI8" s="0" t="n">
-        <v>0.6474</v>
+        <v>0.6803</v>
       </c>
       <c r="AJ8" s="0" t="n">
-        <v>0.9168</v>
+        <v>0.8729</v>
       </c>
       <c r="AK8" s="0" t="n">
-        <v>0.7181</v>
+        <v>0.7213</v>
       </c>
       <c r="AL8" s="0" t="n">
-        <v>0.752</v>
+        <v>0.7382</v>
       </c>
       <c r="AM8" s="0" t="n">
-        <v>0.5618</v>
+        <v>0.6196</v>
       </c>
       <c r="AN8" s="0" t="n">
-        <v>0.8871</v>
+        <v>0.8442</v>
       </c>
       <c r="AO8" s="0" t="n">
-        <v>0.6328</v>
+        <v>0.6641</v>
       </c>
       <c r="AP8" s="0" t="n">
         <v>0.815</v>
@@ -3892,4 +3963,798 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="2" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.8312</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.0765</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.6713</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.1328</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0.9165</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0.7371</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0.1042</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>0.7408</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>0.0951</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>0.5687</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>0.1262</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>0.8832</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>0.0349</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>0.6373</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>0.1081</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.77075594785</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0.0770353780674</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.467271931995</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.278677852104</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.885824830255</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0.0310236327325</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0.537668367941</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0.261447418121</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0.678415152352</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0.102269020505</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>0.4109367495</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>0.262972534579</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>0.865020482476</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>0.0354270658808</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0.473875018133</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>0.252674981131</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.741246597894</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.110227955713</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.469765840299</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.212587934446</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.94169479953</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.0197370288371</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.546037140309</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.215645920504</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.594513222016</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.19062612453</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.376618387908</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.174689885765</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.928705810954</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.0162636124944</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.447100653118</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.184851873079</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.585678569252</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0.248566309382</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.236246998214</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.226306391797</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.926711679247</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0.02068667125</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0.297516411303</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>0.264435118954</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0.479400535967</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>0.23405085973</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>0.175992336625</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>0.169663207752</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>0.919382491276</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>0.0162743748486</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>0.230707829451</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>0.20781684115</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.39534582873</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.336244318261</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.210219756065</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.219965246101</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.945848348064</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.0100148279127</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.259627179816</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.266496586832</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.374614379255</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.317510242306</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.170347880314</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.179783612441</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.942027006524</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.00980826403587</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.218089824244</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.226060282694</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.488132248106</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0.326197977865</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.141700432935</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.147184333352</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.944289344915</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0.00575374170445</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>0.203550100855</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>0.194276433775</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0.341717700953</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0.247463163207</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>0.0950204107522</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>0.103296480692</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>0.939470490062</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>0.00470478417481</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>0.140394612349</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>0.14012516189</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.715462002381</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.271594937751</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.374305938325</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.286332687137</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.963691537382</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.0128665912737</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.441358757204</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.291024412809</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.512781099845</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.287764217416</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.310166025682</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.260609397379</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.958572295555</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.0116583090211</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.365739597025</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.264047371015</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.552462903963</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0.362585553581</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0.274595414497</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0.312645286028</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0.9604862876</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>0.0120536976762</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>0.316401639799</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>0.32034072593</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0.429516565838</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>0.297302214066</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0.225201600012</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>0.27968412623</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0.95674404491</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>0.0100742638279</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>0.257768491992</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>0.280953780475</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.650992812682</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.35568281705</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.292798091538</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.336744389797</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.969096840269</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.0119411206719</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.344209312121</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.331229209775</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.509474706806</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.343825395603</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.232651129484</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.299171173295</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.964982551965</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.0102021202042</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.27147853034</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.304217210041</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0.645327262217</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0.26304800131</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0.211879370765</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0.309844891964</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0.96499260327</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>0.0112211716497</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>0.24497589476</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>0.31092710133</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0.466824069995</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0.313394765536</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0.177414015166</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>0.284386959405</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>0.962289485662</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>0.0103080280211</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>0.201750950963</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>0.289868446525</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">AVERAGE(B3:B7)</f>
+        <v>0.6668494483374</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">AVERAGE(C3:C7)</f>
+        <v>0.230050005755</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">AVERAGE(D3:D7)</f>
+        <v>0.4036779252454</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">AVERAGE(E3:E7)</f>
+        <v>0.2376860514962</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F7)</f>
+        <v>0.947366305049</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">AVERAGE(G3:G7)</f>
+        <v>0.01637191373908</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">AVERAGE(H3:H7)</f>
+        <v>0.46566647789</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">AVERAGE(I3:I7)</f>
+        <v>0.241719225984</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">AVERAGE(J3:J7)</f>
+        <v>0.5464366815844</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">AVERAGE(K3:K7)</f>
+        <v>0.246965195971</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">AVERAGE(L3:L7)</f>
+        <v>0.3316966846776</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">AVERAGE(M3:M7)</f>
+        <v>0.208090813776</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">AVERAGE(N3:N7)</f>
+        <v>0.9354975329996</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">AVERAGE(O3:O7)</f>
+        <v>0.016566461151114</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">AVERAGE(P3:P7)</f>
+        <v>0.3879417209454</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">AVERAGE(Q3:Q7)</f>
+        <v>0.2174553473658</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.608471386277</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0.290041348896</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0.266338829681</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>0.284302111102</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>0.936460949057</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>0.0340773730646</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>0.320022482932</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>0.297457570601</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>0.479174805021</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0.273602399107</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>0.216913022411</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>0.254368183601</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0.928581398877</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>0.0398054407061</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>0.260899380578</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>0.266054949178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/report/pics/graphs_top50.xlsx
+++ b/report/pics/graphs_top50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Top50All" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t xml:space="preserve">Top-50-code</t>
   </si>
@@ -123,6 +123,18 @@
     <t xml:space="preserve">F1</t>
   </si>
   <si>
+    <t xml:space="preserve">Top 10 Acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 10 F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 50 Acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 50 F1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Labels 01 - 10</t>
   </si>
   <si>
@@ -185,6 +197,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,7 +251,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,16 +259,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -330,7 +339,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -686,11 +695,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="83340654"/>
-        <c:axId val="82833620"/>
+        <c:axId val="6231975"/>
+        <c:axId val="2774407"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83340654"/>
+        <c:axId val="6231975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,14 +734,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82833620"/>
+        <c:crossAx val="2774407"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82833620"/>
+        <c:axId val="2774407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -777,7 +786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83340654"/>
+        <c:crossAx val="6231975"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -813,7 +822,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1169,11 +1178,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="36409715"/>
-        <c:axId val="55552044"/>
+        <c:axId val="8195853"/>
+        <c:axId val="68211706"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36409715"/>
+        <c:axId val="8195853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,14 +1217,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55552044"/>
+        <c:crossAx val="68211706"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55552044"/>
+        <c:axId val="68211706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1260,7 +1269,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36409715"/>
+        <c:crossAx val="8195853"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1296,7 +1305,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1463,7 +1472,7 @@
                   <c:v>0.8395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.865</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.865</c:v>
@@ -1635,7 +1644,7 @@
                   <c:v>0.2822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.4739</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4739</c:v>
@@ -1652,11 +1661,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="31615618"/>
-        <c:axId val="97539626"/>
+        <c:axId val="19415297"/>
+        <c:axId val="18533914"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31615618"/>
+        <c:axId val="19415297"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,14 +1700,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97539626"/>
+        <c:crossAx val="18533914"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97539626"/>
+        <c:axId val="18533914"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31615618"/>
+        <c:crossAx val="19415297"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1778,7 +1787,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1945,7 +1954,7 @@
                   <c:v>0.7944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.8345</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.8345</c:v>
@@ -2117,7 +2126,7 @@
                   <c:v>0.4512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.6481</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6481</c:v>
@@ -2134,11 +2143,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18425794"/>
-        <c:axId val="96581248"/>
+        <c:axId val="3238066"/>
+        <c:axId val="64054881"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18425794"/>
+        <c:axId val="3238066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,14 +2182,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96581248"/>
+        <c:crossAx val="64054881"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96581248"/>
+        <c:axId val="64054881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,8 +2233,491 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18425794"/>
+        <c:crossAx val="3238066"/>
         <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Cond1D!$AD$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top 50 Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Cond1D!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Labels 01 - 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Labels 11 - 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Labels 21 - 30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Labels 31 - 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Labels 41 - 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Cond1D!$AD$3:$AD$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.865020482476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.919382491276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.939470490062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95674404491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.962289485662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.928581398877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Cond1D!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top 10 Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Cond1D!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Labels 01 - 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Labels 11 - 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Labels 21 - 30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Labels 31 - 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Labels 41 - 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Cond1D!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.928705810954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.942027006524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.958572295555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.964982551965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9354975329996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Cond1D!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top 50 F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Cond1D!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Labels 01 - 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Labels 11 - 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Labels 21 - 30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Labels 31 - 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Labels 41 - 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Cond1D!$AF$3:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.473875018133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.230707829451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.140394612349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.257768491992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.201750950963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.260899380578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Cond1D!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top 10 F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Cond1D!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Labels 01 - 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Labels 11 - 20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Labels 21 - 30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Labels 31 - 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Labels 41 - 50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Cond1D!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.447100653118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.218089824244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.365739597025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27147853034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3879417209454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="84585433"/>
+        <c:axId val="30553783"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84585433"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30553783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30553783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84585433"/>
+        <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2271,9 +2763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2282,7 +2774,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="119160" y="1491840"/>
-        <a:ext cx="5758920" cy="2878920"/>
+        <a:ext cx="5758560" cy="2878560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2301,9 +2793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2312,7 +2804,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6207840" y="1539360"/>
-        <a:ext cx="5758920" cy="2878920"/>
+        <a:ext cx="5758560" cy="2878560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2330,15 +2822,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>199080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:colOff>176760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2346,8 +2838,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1129680" y="1396080"/>
-        <a:ext cx="5759280" cy="2879640"/>
+        <a:off x="1078920" y="1797480"/>
+        <a:ext cx="5758200" cy="2879280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2360,15 +2852,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>123480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:colOff>21960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:colOff>180360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2376,12 +2868,47 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7271640" y="1453320"/>
-        <a:ext cx="5758560" cy="2879640"/>
+        <a:off x="7168680" y="1740240"/>
+        <a:ext cx="5758560" cy="2879280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2615400" y="1954800"/>
+        <a:ext cx="5759640" cy="2879640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2821,8 +3348,8 @@
   </sheetPr>
   <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH5" activeCellId="0" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2831,9 +3358,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="2" style="0" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="2.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="18" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="26" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="18" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="34" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="3.61"/>
@@ -3377,29 +3902,29 @@
       <c r="I5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>26</v>
+      <c r="J5" s="0" t="n">
+        <v>0.7708</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.4673</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.8858</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.5377</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.6784</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.4109</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.4739</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>0.7768</v>
@@ -3449,29 +3974,29 @@
       <c r="AG5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AH5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO5" s="0" t="s">
-        <v>26</v>
+      <c r="AH5" s="0" t="n">
+        <v>0.7945</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <v>0.6652</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>0.7142</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>0.7296</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>0.8345</v>
+      </c>
+      <c r="AO5" s="0" t="n">
+        <v>0.6481</v>
       </c>
       <c r="AP5" s="0" t="n">
         <v>0.7978</v>
@@ -3972,8 +4497,8 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG11" activeCellId="0" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4024,7 +4549,7 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4062,13 +4587,13 @@
         <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>30</v>
@@ -4110,13 +4635,13 @@
         <v>30</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>30</v>
@@ -4124,7 +4649,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>0.8312</v>
@@ -4224,8 +4749,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>34</v>
+      <c r="A4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.741246597894</v>
@@ -4326,7 +4851,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.39534582873</v>
@@ -4427,7 +4952,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.715462002381</v>
@@ -4528,7 +5053,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.650992812682</v>
@@ -4629,7 +5154,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">AVERAGE(B3:B7)</f>
@@ -4756,5 +5281,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/pics/graphs_top50.xlsx
+++ b/report/pics/graphs_top50.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Top50All" sheetId="1" state="visible" r:id="rId2"/>
@@ -160,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,6 +190,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -251,11 +256,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,7 +268,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,7 +344,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -695,11 +700,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="6231975"/>
-        <c:axId val="2774407"/>
+        <c:axId val="87292397"/>
+        <c:axId val="81915000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6231975"/>
+        <c:axId val="87292397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,14 +739,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2774407"/>
+        <c:crossAx val="81915000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2774407"/>
+        <c:axId val="81915000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -786,7 +791,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6231975"/>
+        <c:crossAx val="87292397"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -822,7 +827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1178,11 +1183,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="8195853"/>
-        <c:axId val="68211706"/>
+        <c:axId val="94243939"/>
+        <c:axId val="96655385"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8195853"/>
+        <c:axId val="94243939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,14 +1222,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68211706"/>
+        <c:crossAx val="96655385"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68211706"/>
+        <c:axId val="96655385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1269,7 +1274,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8195853"/>
+        <c:crossAx val="94243939"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1305,11 +1310,50 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>top-50-code</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1320,97 +1364,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Top50Best10First10!$X$2</c:f>
+              <c:f>Top50All!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Top10 Acc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>LR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Conv1D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LSTM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GRU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Top50Best10First10!$X$3:$X$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.8392</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8432</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8575</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8832</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.895</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Top50Best10First10!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>First10 Acc</c:v>
+                  <c:v>Train F1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,7 +1383,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1435,7 +1392,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
+              <c:f>Top50All!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1461,128 +1418,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Top50Best10First10!$P$3:$P$8</c:f>
+              <c:f>Top50All!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.8392</c:v>
+                  <c:v>0.9815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8395</c:v>
+                  <c:v>0.3866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.865</c:v>
+                  <c:v>0.6892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.865</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8688</c:v>
+                  <c:v>0.1891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8871</c:v>
+                  <c:v>0.3947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Top50Best10First10!$Y$2</c:f>
+              <c:f>Top50All!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Top10 F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>LR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Conv1D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LSTM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GRU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Top50Best10First10!$Y$3:$Y$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.532</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3219</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6373</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6874</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Top50Best10First10!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>First10 F1</c:v>
+                  <c:v>Test F1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,7 +1468,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1607,7 +1477,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
+              <c:f>Top50All!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1633,27 +1503,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Top50Best10First10!$Q$3:$Q$8</c:f>
+              <c:f>Top50All!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.532</c:v>
+                  <c:v>0.3662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2822</c:v>
+                  <c:v>0.1155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4739</c:v>
+                  <c:v>0.3067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4739</c:v>
+                  <c:v>0.2609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4025</c:v>
+                  <c:v>0.1659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6328</c:v>
+                  <c:v>0.3263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,11 +1531,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="19415297"/>
-        <c:axId val="18533914"/>
+        <c:axId val="49021303"/>
+        <c:axId val="33382281"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19415297"/>
+        <c:axId val="49021303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,14 +1570,845 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18533914"/>
+        <c:crossAx val="33382281"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18533914"/>
+        <c:axId val="33382281"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49021303"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>top-50-cat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50All!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50All!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50All!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50All!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50All!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50All!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="46805899"/>
+        <c:axId val="31780871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46805899"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31780871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="31780871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46805899"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Best10First10!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top10 Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Best10First10!$X$3:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Best10First10!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>First10 Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Best10First10!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Best10First10!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top10 F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Best10First10!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Top50Best10First10!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>First10 F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Top50Best10First10!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Top50Best10First10!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="38509236"/>
+        <c:axId val="50514288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38509236"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50514288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50514288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +2452,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19415297"/>
+        <c:crossAx val="38509236"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1787,7 +2488,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2143,11 +2844,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="3238066"/>
-        <c:axId val="64054881"/>
+        <c:axId val="3463324"/>
+        <c:axId val="88036995"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3238066"/>
+        <c:axId val="3463324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,14 +2883,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64054881"/>
+        <c:crossAx val="88036995"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64054881"/>
+        <c:axId val="88036995"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3238066"/>
+        <c:crossAx val="3463324"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2269,7 +2970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2625,11 +3326,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84585433"/>
-        <c:axId val="30553783"/>
+        <c:axId val="44285575"/>
+        <c:axId val="90675347"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84585433"/>
+        <c:axId val="44285575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,14 +3365,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30553783"/>
+        <c:crossAx val="90675347"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30553783"/>
+        <c:axId val="90675347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2716,7 +3417,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84585433"/>
+        <c:crossAx val="44285575"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -2763,9 +3464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2774,7 +3475,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="119160" y="1491840"/>
-        <a:ext cx="5758560" cy="2878560"/>
+        <a:ext cx="5758200" cy="2878200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2793,9 +3494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2804,11 +3505,71 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6207840" y="1539360"/>
-        <a:ext cx="5758560" cy="2878560"/>
+        <a:ext cx="5758200" cy="2878200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="189000" y="4494240"/>
+        <a:ext cx="5760360" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>505440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17280</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6058800" y="4484520"/>
+        <a:ext cx="5760360" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2828,18 +3589,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
+      <xdr:colOff>176400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1078920" y="1797480"/>
-        <a:ext cx="5758200" cy="2879280"/>
+        <a:ext cx="5757840" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2858,18 +3619,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7168680" y="1740240"/>
-        <a:ext cx="5758560" cy="2879280"/>
+        <a:ext cx="5758200" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2893,18 +3654,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2615400" y="1954800"/>
-        <a:ext cx="5759640" cy="2879640"/>
+        <a:ext cx="5759280" cy="2879280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2924,8 +3685,8 @@
   </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3348,7 +4109,7 @@
   </sheetPr>
   <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AH5" activeCellId="0" sqref="AH5"/>
     </sheetView>
   </sheetViews>
